--- a/Question/Languages/JavaScript/JavaScript _I.xlsx
+++ b/Question/Languages/JavaScript/JavaScript _I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813BD6D-FE0B-48AD-B9E6-1D077EB3F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7189C48-A3E4-4B50-9F75-A7F6A4C6B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
